--- a/programas/Projects/6_regresionLineal/logHSY.xlsx
+++ b/programas/Projects/6_regresionLineal/logHSY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1516"/>
+  <dimension ref="A1:J1639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45976,6 +45976,3700 @@
         <v>115.6599197410675</v>
       </c>
     </row>
+    <row r="1517">
+      <c r="A1517" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-20</t>
+        </is>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>2022-05-20</t>
+        </is>
+      </c>
+      <c r="C1517" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>206.9799957275391</v>
+      </c>
+      <c r="E1517" t="inlineStr"/>
+      <c r="F1517" t="inlineStr"/>
+      <c r="G1517" t="inlineStr"/>
+      <c r="H1517" t="n">
+        <v>0.00906786590594888</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>0.00906786590594888</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>116.7087083839723</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
+        </is>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
+        </is>
+      </c>
+      <c r="C1518" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>209.25</v>
+      </c>
+      <c r="E1518" t="inlineStr"/>
+      <c r="F1518" t="inlineStr"/>
+      <c r="G1518" t="inlineStr"/>
+      <c r="H1518" t="n">
+        <v>0.01096726408019211</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>0.01096726408019211</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>117.9886836092774</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
+        </is>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
+        </is>
+      </c>
+      <c r="C1519" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>213.4499969482422</v>
+      </c>
+      <c r="E1519" t="inlineStr"/>
+      <c r="F1519" t="inlineStr"/>
+      <c r="G1519" t="inlineStr"/>
+      <c r="H1519" t="n">
+        <v>0.02007167000354682</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>0.02007167000354682</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>120.3569135308358</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
+        </is>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
+        </is>
+      </c>
+      <c r="C1520" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>211.4299926757812</v>
+      </c>
+      <c r="E1520" t="inlineStr"/>
+      <c r="F1520" t="inlineStr"/>
+      <c r="G1520" t="inlineStr"/>
+      <c r="H1520" t="n">
+        <v>-0.009463594759154592</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>-0.009463594759154592</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>119.2179044747173</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-26</t>
+        </is>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>2022-05-26</t>
+        </is>
+      </c>
+      <c r="C1521" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>209.5399932861328</v>
+      </c>
+      <c r="E1521" t="inlineStr"/>
+      <c r="F1521" t="inlineStr"/>
+      <c r="G1521" t="inlineStr"/>
+      <c r="H1521" t="n">
+        <v>-0.008939126212555215</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>-0.008939126212555215</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>118.1522005798215</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-27</t>
+        </is>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>2022-05-27</t>
+        </is>
+      </c>
+      <c r="C1522" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>212.6100006103516</v>
+      </c>
+      <c r="E1522" t="inlineStr"/>
+      <c r="F1522" t="inlineStr"/>
+      <c r="G1522" t="inlineStr"/>
+      <c r="H1522" t="n">
+        <v>0.01465117601691701</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>0.01465117601691701</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>119.8832692673025</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
+      </c>
+      <c r="C1523" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>211.7100067138672</v>
+      </c>
+      <c r="E1523" t="inlineStr"/>
+      <c r="F1523" t="inlineStr"/>
+      <c r="G1523" t="inlineStr"/>
+      <c r="H1523" t="n">
+        <v>-0.004233074144681437</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>-0.004233074144681437</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>119.3757944997872</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-01</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>2022-06-01</t>
+        </is>
+      </c>
+      <c r="C1524" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>209.6900024414062</v>
+      </c>
+      <c r="E1524" t="inlineStr"/>
+      <c r="F1524" t="inlineStr"/>
+      <c r="G1524" t="inlineStr"/>
+      <c r="H1524" t="n">
+        <v>-0.009541373616746562</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>-0.009541373616746562</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>118.2367854436688</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-02</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>2022-06-02</t>
+        </is>
+      </c>
+      <c r="C1525" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>209.2299957275391</v>
+      </c>
+      <c r="E1525" t="inlineStr"/>
+      <c r="F1525" t="inlineStr"/>
+      <c r="G1525" t="inlineStr"/>
+      <c r="H1525" t="n">
+        <v>-0.002193746523493578</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>-0.002193746523493578</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>117.9774039066527</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="C1526" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>209.1799926757812</v>
+      </c>
+      <c r="E1526" t="inlineStr"/>
+      <c r="F1526" t="inlineStr"/>
+      <c r="G1526" t="inlineStr"/>
+      <c r="H1526" t="n">
+        <v>-0.0002389860573477343</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>-0.0002389860573477343</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>117.9492089520369</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-06</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>2022-06-06</t>
+        </is>
+      </c>
+      <c r="C1527" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>211.4100036621094</v>
+      </c>
+      <c r="E1527" t="inlineStr"/>
+      <c r="F1527" t="inlineStr"/>
+      <c r="G1527" t="inlineStr"/>
+      <c r="H1527" t="n">
+        <v>0.01066072791093609</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>0.01066072791093609</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>119.2066333759847</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="C1528" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>211.7700042724609</v>
+      </c>
+      <c r="E1528" t="inlineStr"/>
+      <c r="F1528" t="inlineStr"/>
+      <c r="G1528" t="inlineStr"/>
+      <c r="H1528" t="n">
+        <v>0.00170285513511903</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>0.00170285513511903</v>
+      </c>
+      <c r="J1528" t="n">
+        <v>119.4096250037693</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-08</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>2022-06-08</t>
+        </is>
+      </c>
+      <c r="C1529" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>210.5500030517578</v>
+      </c>
+      <c r="E1529" t="inlineStr"/>
+      <c r="F1529" t="inlineStr"/>
+      <c r="G1529" t="inlineStr"/>
+      <c r="H1529" t="n">
+        <v>-0.005760972734993652</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>-0.005760972734993652</v>
+      </c>
+      <c r="J1529" t="n">
+        <v>118.7217094098268</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-09</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>2022-06-09</t>
+        </is>
+      </c>
+      <c r="C1530" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>209.4499969482422</v>
+      </c>
+      <c r="E1530" t="inlineStr"/>
+      <c r="F1530" t="inlineStr"/>
+      <c r="G1530" t="inlineStr"/>
+      <c r="H1530" t="n">
+        <v>-0.005224441166335247</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>-0.005224441166335247</v>
+      </c>
+      <c r="J1530" t="n">
+        <v>118.1014548238484</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-10</t>
+        </is>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>2022-06-10</t>
+        </is>
+      </c>
+      <c r="C1531" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>213.3500061035156</v>
+      </c>
+      <c r="E1531" t="inlineStr"/>
+      <c r="F1531" t="inlineStr"/>
+      <c r="G1531" t="inlineStr"/>
+      <c r="H1531" t="n">
+        <v>0.01862023973310056</v>
+      </c>
+      <c r="I1531" t="n">
+        <v>0.01862023973310056</v>
+      </c>
+      <c r="J1531" t="n">
+        <v>120.3005322254964</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-13</t>
+        </is>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>2022-06-13</t>
+        </is>
+      </c>
+      <c r="C1532" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>210.0599975585938</v>
+      </c>
+      <c r="E1532" t="inlineStr"/>
+      <c r="F1532" t="inlineStr"/>
+      <c r="G1532" t="inlineStr"/>
+      <c r="H1532" t="n">
+        <v>-0.01542070987017263</v>
+      </c>
+      <c r="I1532" t="n">
+        <v>-0.01542070987017263</v>
+      </c>
+      <c r="J1532" t="n">
+        <v>118.4454126208196</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-14</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t>2022-06-14</t>
+        </is>
+      </c>
+      <c r="C1533" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>206.7899932861328</v>
+      </c>
+      <c r="E1533" t="inlineStr"/>
+      <c r="F1533" t="inlineStr"/>
+      <c r="G1533" t="inlineStr"/>
+      <c r="H1533" t="n">
+        <v>-0.01556700138277789</v>
+      </c>
+      <c r="I1533" t="n">
+        <v>-0.01556700138277789</v>
+      </c>
+      <c r="J1533" t="n">
+        <v>116.6015727187677</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="B1534" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="C1534" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>206.1900024414062</v>
+      </c>
+      <c r="E1534" t="inlineStr"/>
+      <c r="F1534" t="inlineStr"/>
+      <c r="G1534" t="inlineStr"/>
+      <c r="H1534" t="n">
+        <v>-0.002901450090461388</v>
+      </c>
+      <c r="I1534" t="n">
+        <v>-0.002901450090461388</v>
+      </c>
+      <c r="J1534" t="n">
+        <v>116.2632590750548</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-16</t>
+        </is>
+      </c>
+      <c r="B1535" t="inlineStr">
+        <is>
+          <t>2022-06-16</t>
+        </is>
+      </c>
+      <c r="C1535" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>202.2599945068359</v>
+      </c>
+      <c r="E1535" t="inlineStr"/>
+      <c r="F1535" t="inlineStr"/>
+      <c r="G1535" t="inlineStr"/>
+      <c r="H1535" t="n">
+        <v>-0.01906012846421645</v>
+      </c>
+      <c r="I1535" t="n">
+        <v>-0.01906012846421645</v>
+      </c>
+      <c r="J1535" t="n">
+        <v>114.0472664214158</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-17</t>
+        </is>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t>2022-06-17</t>
+        </is>
+      </c>
+      <c r="C1536" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>206.0299987792969</v>
+      </c>
+      <c r="E1536" t="inlineStr"/>
+      <c r="F1536" t="inlineStr"/>
+      <c r="G1536" t="inlineStr"/>
+      <c r="H1536" t="n">
+        <v>0.01863939669163561</v>
+      </c>
+      <c r="I1536" t="n">
+        <v>0.01863939669163561</v>
+      </c>
+      <c r="J1536" t="n">
+        <v>116.1730386618412</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-21</t>
+        </is>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>2022-06-21</t>
+        </is>
+      </c>
+      <c r="C1537" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>215.0700073242188</v>
+      </c>
+      <c r="E1537" t="inlineStr"/>
+      <c r="F1537" t="inlineStr"/>
+      <c r="G1537" t="inlineStr"/>
+      <c r="H1537" t="n">
+        <v>0.04387714701006096</v>
+      </c>
+      <c r="I1537" t="n">
+        <v>0.04387714701006096</v>
+      </c>
+      <c r="J1537" t="n">
+        <v>121.2703801578123</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-22</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>2022-06-22</t>
+        </is>
+      </c>
+      <c r="C1538" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>214.8999938964844</v>
+      </c>
+      <c r="E1538" t="inlineStr"/>
+      <c r="F1538" t="inlineStr"/>
+      <c r="G1538" t="inlineStr"/>
+      <c r="H1538" t="n">
+        <v>-0.0007905027290862066</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>-0.0007905027290862066</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>121.1745155913403</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="C1539" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>218.1100006103516</v>
+      </c>
+      <c r="E1539" t="inlineStr"/>
+      <c r="F1539" t="inlineStr"/>
+      <c r="G1539" t="inlineStr"/>
+      <c r="H1539" t="n">
+        <v>0.01493721174982166</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>0.01493721174982166</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>122.9845249894102</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="C1540" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>220.9600067138672</v>
+      </c>
+      <c r="E1540" t="inlineStr"/>
+      <c r="F1540" t="inlineStr"/>
+      <c r="G1540" t="inlineStr"/>
+      <c r="H1540" t="n">
+        <v>0.01306682910247248</v>
+      </c>
+      <c r="I1540" t="n">
+        <v>0.01306682910247248</v>
+      </c>
+      <c r="J1540" t="n">
+        <v>124.5915427596956</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="C1541" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>220.9600067138672</v>
+      </c>
+      <c r="E1541" t="inlineStr"/>
+      <c r="F1541" t="inlineStr"/>
+      <c r="G1541" t="inlineStr"/>
+      <c r="H1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1541" t="n">
+        <v>124.5915427596956</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="C1542" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>218.4199981689453</v>
+      </c>
+      <c r="E1542" t="inlineStr"/>
+      <c r="F1542" t="inlineStr"/>
+      <c r="G1542" t="inlineStr"/>
+      <c r="H1542" t="n">
+        <v>-0.01149533158826821</v>
+      </c>
+      <c r="I1542" t="n">
+        <v>-0.01149533158826821</v>
+      </c>
+      <c r="J1542" t="n">
+        <v>123.1593216625789</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-29</t>
+        </is>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>2022-06-29</t>
+        </is>
+      </c>
+      <c r="C1543" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>218.9100036621094</v>
+      </c>
+      <c r="E1543" t="inlineStr"/>
+      <c r="F1543" t="inlineStr"/>
+      <c r="G1543" t="inlineStr"/>
+      <c r="H1543" t="n">
+        <v>0.002243409473820401</v>
+      </c>
+      <c r="I1543" t="n">
+        <v>0.002243409473820401</v>
+      </c>
+      <c r="J1543" t="n">
+        <v>123.4356184515861</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="C1544" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>215.1600036621094</v>
+      </c>
+      <c r="E1544" t="inlineStr"/>
+      <c r="F1544" t="inlineStr"/>
+      <c r="G1544" t="inlineStr"/>
+      <c r="H1544" t="n">
+        <v>-0.01713032724529195</v>
+      </c>
+      <c r="I1544" t="n">
+        <v>-0.01713032724529195</v>
+      </c>
+      <c r="J1544" t="n">
+        <v>121.3211259137854</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
+      </c>
+      <c r="C1545" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>221</v>
+      </c>
+      <c r="E1545" t="inlineStr"/>
+      <c r="F1545" t="inlineStr"/>
+      <c r="G1545" t="inlineStr"/>
+      <c r="H1545" t="n">
+        <v>0.0271425740773914</v>
+      </c>
+      <c r="I1545" t="n">
+        <v>0.0271425740773914</v>
+      </c>
+      <c r="J1545" t="n">
+        <v>124.6140935610528</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-05</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>2022-07-05</t>
+        </is>
+      </c>
+      <c r="C1546" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>218.3399963378906</v>
+      </c>
+      <c r="E1546" t="inlineStr"/>
+      <c r="F1546" t="inlineStr"/>
+      <c r="G1546" t="inlineStr"/>
+      <c r="H1546" t="n">
+        <v>-0.01203621566565327</v>
+      </c>
+      <c r="I1546" t="n">
+        <v>-0.01203621566565327</v>
+      </c>
+      <c r="J1546" t="n">
+        <v>123.1142114559721</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-06</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>2022-07-06</t>
+        </is>
+      </c>
+      <c r="C1547" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>220.6399993896484</v>
+      </c>
+      <c r="E1547" t="inlineStr"/>
+      <c r="F1547" t="inlineStr"/>
+      <c r="G1547" t="inlineStr"/>
+      <c r="H1547" t="n">
+        <v>0.01053404364905486</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>0.01053404364905486</v>
+      </c>
+      <c r="J1547" t="n">
+        <v>124.4111019332683</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-07</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>2022-07-07</t>
+        </is>
+      </c>
+      <c r="C1548" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>219.9299926757812</v>
+      </c>
+      <c r="E1548" t="inlineStr"/>
+      <c r="F1548" t="inlineStr"/>
+      <c r="G1548" t="inlineStr"/>
+      <c r="H1548" t="n">
+        <v>-0.003217941968053251</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>-0.003217941968053251</v>
+      </c>
+      <c r="J1548" t="n">
+        <v>124.0107542270655</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-08</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>2022-07-08</t>
+        </is>
+      </c>
+      <c r="C1549" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>219.7899932861328</v>
+      </c>
+      <c r="E1549" t="inlineStr"/>
+      <c r="F1549" t="inlineStr"/>
+      <c r="G1549" t="inlineStr"/>
+      <c r="H1549" t="n">
+        <v>-0.0006365634261390474</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>-0.0006365634261390474</v>
+      </c>
+      <c r="J1549" t="n">
+        <v>123.9318135164766</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-11</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>2022-07-11</t>
+        </is>
+      </c>
+      <c r="C1550" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="E1550" t="inlineStr"/>
+      <c r="F1550" t="inlineStr"/>
+      <c r="G1550" t="inlineStr"/>
+      <c r="H1550" t="n">
+        <v>0.003230386894561121</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>0.003230386894561121</v>
+      </c>
+      <c r="J1550" t="n">
+        <v>124.3321612226794</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-12</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>2022-07-12</t>
+        </is>
+      </c>
+      <c r="C1551" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>220.1300048828125</v>
+      </c>
+      <c r="E1551" t="inlineStr"/>
+      <c r="F1551" t="inlineStr"/>
+      <c r="G1551" t="inlineStr"/>
+      <c r="H1551" t="n">
+        <v>-0.001677982390873023</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>-0.001677982390873023</v>
+      </c>
+      <c r="J1551" t="n">
+        <v>124.1235340455286</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="C1552" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>219.7799987792969</v>
+      </c>
+      <c r="E1552" t="inlineStr"/>
+      <c r="F1552" t="inlineStr"/>
+      <c r="G1552" t="inlineStr"/>
+      <c r="H1552" t="n">
+        <v>-0.001589997255040054</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>-0.001589997255040054</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>123.9261779671103</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="C1553" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>217.8699951171875</v>
+      </c>
+      <c r="E1553" t="inlineStr"/>
+      <c r="F1553" t="inlineStr"/>
+      <c r="G1553" t="inlineStr"/>
+      <c r="H1553" t="n">
+        <v>-0.008690525401391924</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>-0.008690525401391924</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>122.8491943695897</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-15</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>2022-07-15</t>
+        </is>
+      </c>
+      <c r="C1554" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>216.8000030517578</v>
+      </c>
+      <c r="E1554" t="inlineStr"/>
+      <c r="F1554" t="inlineStr"/>
+      <c r="G1554" t="inlineStr"/>
+      <c r="H1554" t="n">
+        <v>-0.004911149260613756</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>-0.004911149260613756</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>122.2458636394945</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-18</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>2022-07-18</t>
+        </is>
+      </c>
+      <c r="C1555" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>215.0599975585938</v>
+      </c>
+      <c r="E1555" t="inlineStr"/>
+      <c r="F1555" t="inlineStr"/>
+      <c r="G1555" t="inlineStr"/>
+      <c r="H1555" t="n">
+        <v>-0.008025855482800215</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>-0.008025855482800215</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>121.2647360045538</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-19</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>2022-07-19</t>
+        </is>
+      </c>
+      <c r="C1556" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>216.1100006103516</v>
+      </c>
+      <c r="E1556" t="inlineStr"/>
+      <c r="F1556" t="inlineStr"/>
+      <c r="G1556" t="inlineStr"/>
+      <c r="H1556" t="n">
+        <v>0.004882372657294187</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>0.004882372657294187</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>121.8567956359165</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-20</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>2022-07-20</t>
+        </is>
+      </c>
+      <c r="C1557" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>215.3800048828125</v>
+      </c>
+      <c r="E1557" t="inlineStr"/>
+      <c r="F1557" t="inlineStr"/>
+      <c r="G1557" t="inlineStr"/>
+      <c r="H1557" t="n">
+        <v>-0.003377889618607965</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>-0.003377889618607965</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>121.4451768309811</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-21</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>2022-07-21</t>
+        </is>
+      </c>
+      <c r="C1558" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>215.9100036621094</v>
+      </c>
+      <c r="E1558" t="inlineStr"/>
+      <c r="F1558" t="inlineStr"/>
+      <c r="G1558" t="inlineStr"/>
+      <c r="H1558" t="n">
+        <v>0.002460761292977232</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>0.002460761292977232</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>121.7440244213455</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-22</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>2022-07-22</t>
+        </is>
+      </c>
+      <c r="C1559" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>215.9199981689453</v>
+      </c>
+      <c r="E1559" t="inlineStr"/>
+      <c r="F1559" t="inlineStr"/>
+      <c r="G1559" t="inlineStr"/>
+      <c r="H1559" t="n">
+        <v>4.629015175972029e-05</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>4.629015175972029e-05</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>121.7496599707118</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-25</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>2022-07-25</t>
+        </is>
+      </c>
+      <c r="C1560" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>216.8600006103516</v>
+      </c>
+      <c r="E1560" t="inlineStr"/>
+      <c r="F1560" t="inlineStr"/>
+      <c r="G1560" t="inlineStr"/>
+      <c r="H1560" t="n">
+        <v>0.004353475589930156</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>0.004353475589930156</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>122.2796941434766</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-26</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>2022-07-26</t>
+        </is>
+      </c>
+      <c r="C1561" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>218.0099945068359</v>
+      </c>
+      <c r="E1561" t="inlineStr"/>
+      <c r="F1561" t="inlineStr"/>
+      <c r="G1561" t="inlineStr"/>
+      <c r="H1561" t="n">
+        <v>0.005302932275420558</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>0.005302932275420558</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>122.9281350801786</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="C1562" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>218.2299957275391</v>
+      </c>
+      <c r="E1562" t="inlineStr"/>
+      <c r="F1562" t="inlineStr"/>
+      <c r="G1562" t="inlineStr"/>
+      <c r="H1562" t="n">
+        <v>0.001009133646376226</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>0.001009133646376226</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>123.0521859973743</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-28</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>2022-07-28</t>
+        </is>
+      </c>
+      <c r="C1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>224.2700042724609</v>
+      </c>
+      <c r="E1563" t="inlineStr"/>
+      <c r="F1563" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1563" t="inlineStr"/>
+      <c r="H1563" t="n">
+        <v>0.02767726097773848</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>0.02767726097773848</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
+      </c>
+      <c r="C1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>227.9600067138672</v>
+      </c>
+      <c r="E1564" t="inlineStr"/>
+      <c r="F1564" t="inlineStr"/>
+      <c r="G1564" t="inlineStr"/>
+      <c r="H1564" t="n">
+        <v>0.01645339265666279</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="C1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>229.7799987792969</v>
+      </c>
+      <c r="E1565" t="inlineStr"/>
+      <c r="F1565" t="inlineStr"/>
+      <c r="G1565" t="inlineStr"/>
+      <c r="H1565" t="n">
+        <v>0.007983821774992794</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-02</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>2022-08-02</t>
+        </is>
+      </c>
+      <c r="C1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>229.1600036621094</v>
+      </c>
+      <c r="E1566" t="inlineStr"/>
+      <c r="F1566" t="inlineStr"/>
+      <c r="G1566" t="inlineStr"/>
+      <c r="H1566" t="n">
+        <v>-0.002698211856911881</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="C1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>228.1199951171875</v>
+      </c>
+      <c r="E1567" t="inlineStr"/>
+      <c r="F1567" t="inlineStr"/>
+      <c r="G1567" t="inlineStr"/>
+      <c r="H1567" t="n">
+        <v>-0.004538351057348344</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="C1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>225.2400054931641</v>
+      </c>
+      <c r="E1568" t="inlineStr"/>
+      <c r="F1568" t="inlineStr"/>
+      <c r="G1568" t="inlineStr"/>
+      <c r="H1568" t="n">
+        <v>-0.01262488903063474</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="C1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>227.1100006103516</v>
+      </c>
+      <c r="E1569" t="inlineStr"/>
+      <c r="F1569" t="inlineStr"/>
+      <c r="G1569" t="inlineStr"/>
+      <c r="H1569" t="n">
+        <v>0.008302233491306987</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-08</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>2022-08-08</t>
+        </is>
+      </c>
+      <c r="C1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>226.3399963378906</v>
+      </c>
+      <c r="E1570" t="inlineStr"/>
+      <c r="F1570" t="inlineStr"/>
+      <c r="G1570" t="inlineStr"/>
+      <c r="H1570" t="n">
+        <v>-0.003390446349309073</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="C1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>228.2899932861328</v>
+      </c>
+      <c r="E1571" t="inlineStr"/>
+      <c r="F1571" t="inlineStr"/>
+      <c r="G1571" t="inlineStr"/>
+      <c r="H1571" t="n">
+        <v>0.008615344083204635</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
+      </c>
+      <c r="C1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>226.4600067138672</v>
+      </c>
+      <c r="E1572" t="inlineStr"/>
+      <c r="F1572" t="inlineStr"/>
+      <c r="G1572" t="inlineStr"/>
+      <c r="H1572" t="n">
+        <v>-0.008016061264551233</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-11</t>
+        </is>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>2022-08-11</t>
+        </is>
+      </c>
+      <c r="C1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>225.1799926757812</v>
+      </c>
+      <c r="E1573" t="inlineStr"/>
+      <c r="F1573" t="inlineStr"/>
+      <c r="G1573" t="inlineStr"/>
+      <c r="H1573" t="n">
+        <v>-0.005652274132903479</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
+      </c>
+      <c r="C1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>225.7599945068359</v>
+      </c>
+      <c r="E1574" t="inlineStr"/>
+      <c r="F1574" t="inlineStr"/>
+      <c r="G1574" t="inlineStr"/>
+      <c r="H1574" t="n">
+        <v>0.002575725419308394</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-15</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>2022-08-15</t>
+        </is>
+      </c>
+      <c r="C1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>230.3200073242188</v>
+      </c>
+      <c r="E1575" t="inlineStr"/>
+      <c r="F1575" t="inlineStr"/>
+      <c r="G1575" t="inlineStr"/>
+      <c r="H1575" t="n">
+        <v>0.02019849808795393</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="C1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>230.7200012207031</v>
+      </c>
+      <c r="E1576" t="inlineStr"/>
+      <c r="F1576" t="inlineStr"/>
+      <c r="G1576" t="inlineStr"/>
+      <c r="H1576" t="n">
+        <v>0.001736687581471497</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="C1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>230.4799957275391</v>
+      </c>
+      <c r="E1577" t="inlineStr"/>
+      <c r="F1577" t="inlineStr"/>
+      <c r="G1577" t="inlineStr"/>
+      <c r="H1577" t="n">
+        <v>-0.001040245717294663</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
+      </c>
+      <c r="C1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>230.6499938964844</v>
+      </c>
+      <c r="E1578" t="inlineStr"/>
+      <c r="F1578" t="inlineStr"/>
+      <c r="G1578" t="inlineStr"/>
+      <c r="H1578" t="n">
+        <v>0.0007375831833418278</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-19</t>
+        </is>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>2022-08-19</t>
+        </is>
+      </c>
+      <c r="C1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>233.1799926757812</v>
+      </c>
+      <c r="E1579" t="inlineStr"/>
+      <c r="F1579" t="inlineStr"/>
+      <c r="G1579" t="inlineStr"/>
+      <c r="H1579" t="n">
+        <v>0.01096899564815224</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="C1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>231.4199981689453</v>
+      </c>
+      <c r="E1580" t="inlineStr"/>
+      <c r="F1580" t="inlineStr"/>
+      <c r="G1580" t="inlineStr"/>
+      <c r="H1580" t="n">
+        <v>-0.007547793816440662</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="C1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>232.5599975585938</v>
+      </c>
+      <c r="E1581" t="inlineStr"/>
+      <c r="F1581" t="inlineStr"/>
+      <c r="G1581" t="inlineStr"/>
+      <c r="H1581" t="n">
+        <v>0.004926105775941547</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="C1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>233.3800048828125</v>
+      </c>
+      <c r="E1582" t="inlineStr"/>
+      <c r="F1582" t="inlineStr"/>
+      <c r="G1582" t="inlineStr"/>
+      <c r="H1582" t="n">
+        <v>0.003526003323130134</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-25</t>
+        </is>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>2022-08-25</t>
+        </is>
+      </c>
+      <c r="C1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>233.3600006103516</v>
+      </c>
+      <c r="E1583" t="inlineStr"/>
+      <c r="F1583" t="inlineStr"/>
+      <c r="G1583" t="inlineStr"/>
+      <c r="H1583" t="n">
+        <v>-8.571545137714409e-05</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="C1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>228.6699981689453</v>
+      </c>
+      <c r="E1584" t="inlineStr"/>
+      <c r="F1584" t="inlineStr"/>
+      <c r="G1584" t="inlineStr"/>
+      <c r="H1584" t="n">
+        <v>-0.02009771352905199</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+      <c r="C1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>227.8899993896484</v>
+      </c>
+      <c r="E1585" t="inlineStr"/>
+      <c r="F1585" t="inlineStr"/>
+      <c r="G1585" t="inlineStr"/>
+      <c r="H1585" t="n">
+        <v>-0.003411023682785896</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+      <c r="C1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>226.2100067138672</v>
+      </c>
+      <c r="E1586" t="inlineStr"/>
+      <c r="F1586" t="inlineStr"/>
+      <c r="G1586" t="inlineStr"/>
+      <c r="H1586" t="n">
+        <v>-0.007371945589015438</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="C1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>224.6699981689453</v>
+      </c>
+      <c r="E1587" t="inlineStr"/>
+      <c r="F1587" t="inlineStr"/>
+      <c r="G1587" t="inlineStr"/>
+      <c r="H1587" t="n">
+        <v>-0.006807871001347165</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-01</t>
+        </is>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>2022-09-01</t>
+        </is>
+      </c>
+      <c r="C1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>227.5599975585938</v>
+      </c>
+      <c r="E1588" t="inlineStr"/>
+      <c r="F1588" t="inlineStr"/>
+      <c r="G1588" t="inlineStr"/>
+      <c r="H1588" t="n">
+        <v>0.012863308021551</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
+      </c>
+      <c r="C1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>224.0500030517578</v>
+      </c>
+      <c r="E1589" t="inlineStr"/>
+      <c r="F1589" t="inlineStr"/>
+      <c r="G1589" t="inlineStr"/>
+      <c r="H1589" t="n">
+        <v>-0.01542447945374126</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="C1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>222.75</v>
+      </c>
+      <c r="E1590" t="inlineStr"/>
+      <c r="F1590" t="inlineStr"/>
+      <c r="G1590" t="inlineStr"/>
+      <c r="H1590" t="n">
+        <v>-0.005802289819462736</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-07</t>
+        </is>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>2022-09-07</t>
+        </is>
+      </c>
+      <c r="C1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>228.25</v>
+      </c>
+      <c r="E1591" t="inlineStr"/>
+      <c r="F1591" t="inlineStr"/>
+      <c r="G1591" t="inlineStr"/>
+      <c r="H1591" t="n">
+        <v>0.02469135802469147</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="C1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>225.4799957275391</v>
+      </c>
+      <c r="E1592" t="inlineStr"/>
+      <c r="F1592" t="inlineStr"/>
+      <c r="G1592" t="inlineStr"/>
+      <c r="H1592" t="n">
+        <v>-0.01213583470957691</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-09</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>2022-09-09</t>
+        </is>
+      </c>
+      <c r="C1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>226.25</v>
+      </c>
+      <c r="E1593" t="inlineStr"/>
+      <c r="F1593" t="inlineStr"/>
+      <c r="G1593" t="inlineStr"/>
+      <c r="H1593" t="n">
+        <v>0.003414956036239092</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-12</t>
+        </is>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>2022-09-12</t>
+        </is>
+      </c>
+      <c r="C1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>227.1799926757812</v>
+      </c>
+      <c r="E1594" t="inlineStr"/>
+      <c r="F1594" t="inlineStr"/>
+      <c r="G1594" t="inlineStr"/>
+      <c r="H1594" t="n">
+        <v>0.004110464865331398</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="C1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>222.8999938964844</v>
+      </c>
+      <c r="E1595" t="inlineStr"/>
+      <c r="F1595" t="inlineStr"/>
+      <c r="G1595" t="inlineStr"/>
+      <c r="H1595" t="n">
+        <v>-0.01883968182622953</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="C1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>221.75</v>
+      </c>
+      <c r="E1596" t="inlineStr"/>
+      <c r="F1596" t="inlineStr"/>
+      <c r="G1596" t="inlineStr"/>
+      <c r="H1596" t="n">
+        <v>-0.00515923700302312</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+      <c r="C1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>219.6199951171875</v>
+      </c>
+      <c r="E1597" t="inlineStr"/>
+      <c r="F1597" t="inlineStr"/>
+      <c r="G1597" t="inlineStr"/>
+      <c r="H1597" t="n">
+        <v>-0.009605433518883877</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="C1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>219.8899993896484</v>
+      </c>
+      <c r="E1598" t="inlineStr"/>
+      <c r="F1598" t="inlineStr"/>
+      <c r="G1598" t="inlineStr"/>
+      <c r="H1598" t="n">
+        <v>0.001229415711064386</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="C1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>222.8699951171875</v>
+      </c>
+      <c r="E1599" t="inlineStr"/>
+      <c r="F1599" t="inlineStr"/>
+      <c r="G1599" t="inlineStr"/>
+      <c r="H1599" t="n">
+        <v>0.01355221126841011</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="C1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>222.4700012207031</v>
+      </c>
+      <c r="E1600" t="inlineStr"/>
+      <c r="F1600" t="inlineStr"/>
+      <c r="G1600" t="inlineStr"/>
+      <c r="H1600" t="n">
+        <v>-0.001794740903880099</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-21</t>
+        </is>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>2022-09-21</t>
+        </is>
+      </c>
+      <c r="C1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>223.4100036621094</v>
+      </c>
+      <c r="E1601" t="inlineStr"/>
+      <c r="F1601" t="inlineStr"/>
+      <c r="G1601" t="inlineStr"/>
+      <c r="H1601" t="n">
+        <v>0.004225299753892298</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-22</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>2022-09-22</t>
+        </is>
+      </c>
+      <c r="C1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>225.5200042724609</v>
+      </c>
+      <c r="E1602" t="inlineStr"/>
+      <c r="F1602" t="inlineStr"/>
+      <c r="G1602" t="inlineStr"/>
+      <c r="H1602" t="n">
+        <v>0.009444521622866908</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-23</t>
+        </is>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>2022-09-23</t>
+        </is>
+      </c>
+      <c r="C1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>223.9400024414062</v>
+      </c>
+      <c r="E1603" t="inlineStr"/>
+      <c r="F1603" t="inlineStr"/>
+      <c r="G1603" t="inlineStr"/>
+      <c r="H1603" t="n">
+        <v>-0.007006038493799438</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="C1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>223.7799987792969</v>
+      </c>
+      <c r="E1604" t="inlineStr"/>
+      <c r="F1604" t="inlineStr"/>
+      <c r="G1604" t="inlineStr"/>
+      <c r="H1604" t="n">
+        <v>-0.0007144934373716216</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1604" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="C1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>221.4299926757812</v>
+      </c>
+      <c r="E1605" t="inlineStr"/>
+      <c r="F1605" t="inlineStr"/>
+      <c r="G1605" t="inlineStr"/>
+      <c r="H1605" t="n">
+        <v>-0.01050141262103288</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1605" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="C1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>226.3000030517578</v>
+      </c>
+      <c r="E1606" t="inlineStr"/>
+      <c r="F1606" t="inlineStr"/>
+      <c r="G1606" t="inlineStr"/>
+      <c r="H1606" t="n">
+        <v>0.02199345408057374</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1606" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="B1607" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="C1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>223.8000030517578</v>
+      </c>
+      <c r="E1607" t="inlineStr"/>
+      <c r="F1607" t="inlineStr"/>
+      <c r="G1607" t="inlineStr"/>
+      <c r="H1607" t="n">
+        <v>-0.01104728221955975</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1607" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="B1608" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="C1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>220.4700012207031</v>
+      </c>
+      <c r="E1608" t="inlineStr"/>
+      <c r="F1608" t="inlineStr"/>
+      <c r="G1608" t="inlineStr"/>
+      <c r="H1608" t="n">
+        <v>-0.01487936454712457</v>
+      </c>
+      <c r="I1608" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1608" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-03</t>
+        </is>
+      </c>
+      <c r="B1609" t="inlineStr">
+        <is>
+          <t>2022-10-03</t>
+        </is>
+      </c>
+      <c r="C1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>224.5599975585938</v>
+      </c>
+      <c r="E1609" t="inlineStr"/>
+      <c r="F1609" t="inlineStr"/>
+      <c r="G1609" t="inlineStr"/>
+      <c r="H1609" t="n">
+        <v>0.01855126010452679</v>
+      </c>
+      <c r="I1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1609" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
+      </c>
+      <c r="B1610" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
+      </c>
+      <c r="C1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>225.6699981689453</v>
+      </c>
+      <c r="E1610" t="inlineStr"/>
+      <c r="F1610" t="inlineStr"/>
+      <c r="G1610" t="inlineStr"/>
+      <c r="H1610" t="n">
+        <v>0.004943002415476627</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1610" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-05</t>
+        </is>
+      </c>
+      <c r="B1611" t="inlineStr">
+        <is>
+          <t>2022-10-05</t>
+        </is>
+      </c>
+      <c r="C1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>225.0899963378906</v>
+      </c>
+      <c r="E1611" t="inlineStr"/>
+      <c r="F1611" t="inlineStr"/>
+      <c r="G1611" t="inlineStr"/>
+      <c r="H1611" t="n">
+        <v>-0.002570132652814916</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1611" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-06</t>
+        </is>
+      </c>
+      <c r="B1612" t="inlineStr">
+        <is>
+          <t>2022-10-06</t>
+        </is>
+      </c>
+      <c r="C1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1612" t="n">
+        <v>220.6499938964844</v>
+      </c>
+      <c r="E1612" t="inlineStr"/>
+      <c r="F1612" t="inlineStr"/>
+      <c r="G1612" t="inlineStr"/>
+      <c r="H1612" t="n">
+        <v>-0.01972545432335071</v>
+      </c>
+      <c r="I1612" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1612" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-07</t>
+        </is>
+      </c>
+      <c r="B1613" t="inlineStr">
+        <is>
+          <t>2022-10-07</t>
+        </is>
+      </c>
+      <c r="C1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>220.5200042724609</v>
+      </c>
+      <c r="E1613" t="inlineStr"/>
+      <c r="F1613" t="inlineStr"/>
+      <c r="G1613" t="inlineStr"/>
+      <c r="H1613" t="n">
+        <v>-0.0005891213578932408</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1613" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-10</t>
+        </is>
+      </c>
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t>2022-10-10</t>
+        </is>
+      </c>
+      <c r="C1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>223.5500030517578</v>
+      </c>
+      <c r="E1614" t="inlineStr"/>
+      <c r="F1614" t="inlineStr"/>
+      <c r="G1614" t="inlineStr"/>
+      <c r="H1614" t="n">
+        <v>0.01374024451565492</v>
+      </c>
+      <c r="I1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1614" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B1615" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="C1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>225.4600067138672</v>
+      </c>
+      <c r="E1615" t="inlineStr"/>
+      <c r="F1615" t="inlineStr"/>
+      <c r="G1615" t="inlineStr"/>
+      <c r="H1615" t="n">
+        <v>0.008543966164326733</v>
+      </c>
+      <c r="I1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1615" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-12</t>
+        </is>
+      </c>
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t>2022-10-12</t>
+        </is>
+      </c>
+      <c r="C1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>224.5299987792969</v>
+      </c>
+      <c r="E1616" t="inlineStr"/>
+      <c r="F1616" t="inlineStr"/>
+      <c r="G1616" t="inlineStr"/>
+      <c r="H1616" t="n">
+        <v>-0.004124935274000041</v>
+      </c>
+      <c r="I1616" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1616" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="C1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>227.8000030517578</v>
+      </c>
+      <c r="E1617" t="inlineStr"/>
+      <c r="F1617" t="inlineStr"/>
+      <c r="G1617" t="inlineStr"/>
+      <c r="H1617" t="n">
+        <v>0.01456377450781177</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1617" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-14</t>
+        </is>
+      </c>
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t>2022-10-14</t>
+        </is>
+      </c>
+      <c r="C1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>222.7100067138672</v>
+      </c>
+      <c r="E1618" t="inlineStr"/>
+      <c r="F1618" t="inlineStr"/>
+      <c r="G1618" t="inlineStr"/>
+      <c r="H1618" t="n">
+        <v>-0.02234414516989336</v>
+      </c>
+      <c r="I1618" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1618" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="C1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>225.7200012207031</v>
+      </c>
+      <c r="E1619" t="inlineStr"/>
+      <c r="F1619" t="inlineStr"/>
+      <c r="G1619" t="inlineStr"/>
+      <c r="H1619" t="n">
+        <v>0.01351530876968221</v>
+      </c>
+      <c r="I1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1619" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
+      </c>
+      <c r="C1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>227.3099975585938</v>
+      </c>
+      <c r="E1620" t="inlineStr"/>
+      <c r="F1620" t="inlineStr"/>
+      <c r="G1620" t="inlineStr"/>
+      <c r="H1620" t="n">
+        <v>0.007044109202958726</v>
+      </c>
+      <c r="I1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1620" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-19</t>
+        </is>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>2022-10-19</t>
+        </is>
+      </c>
+      <c r="C1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>226.2599945068359</v>
+      </c>
+      <c r="E1621" t="inlineStr"/>
+      <c r="F1621" t="inlineStr"/>
+      <c r="G1621" t="inlineStr"/>
+      <c r="H1621" t="n">
+        <v>-0.004619255919384502</v>
+      </c>
+      <c r="I1621" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1621" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="C1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1622" t="n">
+        <v>224.7400054931641</v>
+      </c>
+      <c r="E1622" t="inlineStr"/>
+      <c r="F1622" t="inlineStr"/>
+      <c r="G1622" t="inlineStr"/>
+      <c r="H1622" t="n">
+        <v>-0.006717886725777111</v>
+      </c>
+      <c r="I1622" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1622" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
+      </c>
+      <c r="C1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1623" t="n">
+        <v>228.2200012207031</v>
+      </c>
+      <c r="E1623" t="inlineStr"/>
+      <c r="F1623" t="inlineStr"/>
+      <c r="G1623" t="inlineStr"/>
+      <c r="H1623" t="n">
+        <v>0.01548454054676496</v>
+      </c>
+      <c r="I1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1623" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="C1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>231.9600067138672</v>
+      </c>
+      <c r="E1624" t="inlineStr"/>
+      <c r="F1624" t="inlineStr"/>
+      <c r="G1624" t="inlineStr"/>
+      <c r="H1624" t="n">
+        <v>0.01638772006467226</v>
+      </c>
+      <c r="I1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1624" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-25</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>2022-10-25</t>
+        </is>
+      </c>
+      <c r="C1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>234.1199951171875</v>
+      </c>
+      <c r="E1625" t="inlineStr"/>
+      <c r="F1625" t="inlineStr"/>
+      <c r="G1625" t="inlineStr"/>
+      <c r="H1625" t="n">
+        <v>0.009311900072432433</v>
+      </c>
+      <c r="I1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1625" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="C1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>232.7899932861328</v>
+      </c>
+      <c r="E1626" t="inlineStr"/>
+      <c r="F1626" t="inlineStr"/>
+      <c r="G1626" t="inlineStr"/>
+      <c r="H1626" t="n">
+        <v>-0.005680855368158322</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1626" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-27</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>2022-10-27</t>
+        </is>
+      </c>
+      <c r="C1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>234.4299926757812</v>
+      </c>
+      <c r="E1627" t="inlineStr"/>
+      <c r="F1627" t="inlineStr"/>
+      <c r="G1627" t="inlineStr"/>
+      <c r="H1627" t="n">
+        <v>0.007044973740055305</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-28</t>
+        </is>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>2022-10-28</t>
+        </is>
+      </c>
+      <c r="C1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>239.9600067138672</v>
+      </c>
+      <c r="E1628" t="inlineStr"/>
+      <c r="F1628" t="inlineStr"/>
+      <c r="G1628" t="inlineStr"/>
+      <c r="H1628" t="n">
+        <v>0.02358919170267604</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-31</t>
+        </is>
+      </c>
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>2022-10-31</t>
+        </is>
+      </c>
+      <c r="C1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>238.7700042724609</v>
+      </c>
+      <c r="E1629" t="inlineStr"/>
+      <c r="F1629" t="inlineStr"/>
+      <c r="G1629" t="inlineStr"/>
+      <c r="H1629" t="n">
+        <v>-0.004959169895445203</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="1" t="inlineStr">
+        <is>
+          <t>2022-11-01</t>
+        </is>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>2022-11-01</t>
+        </is>
+      </c>
+      <c r="C1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>237.7599945068359</v>
+      </c>
+      <c r="E1630" t="inlineStr"/>
+      <c r="F1630" t="inlineStr"/>
+      <c r="G1630" t="inlineStr"/>
+      <c r="H1630" t="n">
+        <v>-0.004230052969603659</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="1" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="C1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>235.1100006103516</v>
+      </c>
+      <c r="E1631" t="inlineStr"/>
+      <c r="F1631" t="inlineStr"/>
+      <c r="G1631" t="inlineStr"/>
+      <c r="H1631" t="n">
+        <v>-0.01114566772253267</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="1" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="C1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>232.0899963378906</v>
+      </c>
+      <c r="E1632" t="inlineStr"/>
+      <c r="F1632" t="inlineStr"/>
+      <c r="G1632" t="inlineStr"/>
+      <c r="H1632" t="n">
+        <v>-0.0128450693914377</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="1" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+      <c r="C1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>229.0299987792969</v>
+      </c>
+      <c r="E1633" t="inlineStr"/>
+      <c r="F1633" t="inlineStr"/>
+      <c r="G1633" t="inlineStr"/>
+      <c r="H1633" t="n">
+        <v>-0.01318453016880061</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="1" t="inlineStr">
+        <is>
+          <t>2022-11-07</t>
+        </is>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>2022-11-07</t>
+        </is>
+      </c>
+      <c r="C1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>229.3000030517578</v>
+      </c>
+      <c r="E1634" t="inlineStr"/>
+      <c r="F1634" t="inlineStr"/>
+      <c r="G1634" t="inlineStr"/>
+      <c r="H1634" t="n">
+        <v>0.001178903523119335</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="1" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+      <c r="C1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>231.0700073242188</v>
+      </c>
+      <c r="E1635" t="inlineStr"/>
+      <c r="F1635" t="inlineStr"/>
+      <c r="G1635" t="inlineStr"/>
+      <c r="H1635" t="n">
+        <v>0.007719163754487113</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="1" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+      <c r="C1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>230.7200012207031</v>
+      </c>
+      <c r="E1636" t="inlineStr"/>
+      <c r="F1636" t="inlineStr"/>
+      <c r="G1636" t="inlineStr"/>
+      <c r="H1636" t="n">
+        <v>-0.001514718883548261</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="1" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+      <c r="C1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>226.3000030517578</v>
+      </c>
+      <c r="E1637" t="inlineStr"/>
+      <c r="F1637" t="inlineStr"/>
+      <c r="G1637" t="inlineStr"/>
+      <c r="H1637" t="n">
+        <v>-0.01915741221203104</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1637" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="1" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="C1638" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>218.8800048828125</v>
+      </c>
+      <c r="E1638" t="inlineStr"/>
+      <c r="F1638" t="inlineStr"/>
+      <c r="G1638" t="n">
+        <v>12.57291039855039</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>-0.03278832553638211</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1638" t="n">
+        <v>126.4579334631049</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="1" t="inlineStr">
+        <is>
+          <t>2022-11-14</t>
+        </is>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>2022-11-14</t>
+        </is>
+      </c>
+      <c r="C1639" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>218.1199951171875</v>
+      </c>
+      <c r="E1639" t="inlineStr"/>
+      <c r="F1639" t="inlineStr"/>
+      <c r="G1639" t="inlineStr"/>
+      <c r="H1639" t="n">
+        <v>-0.00347226676110457</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>-0.00347226676110457</v>
+      </c>
+      <c r="J1639" t="n">
+        <v>126.0188377840629</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
